--- a/PESO/Importaciones por Lugar de Salida 2018 - Mensual - Editado.xlsx
+++ b/PESO/Importaciones por Lugar de Salida 2018 - Mensual - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Importaciones\Peso\2018\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7856A09-0CDE-4576-89B5-CC7F812EAC91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B91A99-8D9B-4E62-A962-E8E3DD7E7C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Impo Puerto Peso 2018" sheetId="3" r:id="rId1"/>
@@ -356,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -406,12 +406,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -432,6 +528,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,23 +538,423 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -468,6 +965,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDFDAAE9-FD26-43DD-9F9E-E30B2D88145C}" name="imp_salida_2018" displayName="imp_salida_2018" ref="A1:M60" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:M60" xr:uid="{1ED89427-714A-41BA-8859-2003880BA560}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{4B771469-9FD6-4CC3-A0B9-62EF72D212BF}" name="Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{0A3607BA-43D8-4E45-9FBE-65F014B30449}" name="Enero - 2018" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B4B3363E-4983-4D66-8937-8B309B5EC2AE}" name="Febrero - 2018" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9A55E740-CE33-4441-80B9-1FCF9AA39C00}" name="Marzo - 2018" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{F94B962E-A41B-49EA-8A67-040053ED6ABD}" name="Abril - 2018" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{DED91C50-7588-4C75-A6B1-D7DEB0FE7249}" name="Mayo - 2018" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{01A50C0C-CDBE-4977-B88E-EB2B23570810}" name="Junio - 2018" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{8A785D08-5025-449C-A88F-32F4CBEDFE3B}" name="Julio - 2018" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{D56181FD-F888-468D-89DE-419E4D69797B}" name="Agosto - 2018" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{3027BA9F-169A-45A1-9352-2DD877F61E17}" name="Septiembre - 2018" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{122C1FF3-78F4-4D6F-9500-79693A965788}" name="Octubre - 2018" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{5A89FFD8-25D2-400F-B3EE-D0F9FE4C7239}" name="Noviembre - 2018" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{6AB928D6-362F-4986-AF91-E6430539D43F}" name="Diciembre - 2018" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -763,42 +1282,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="14" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="15" t="s">
         <v>74</v>
       </c>
     </row>
@@ -842,7 +1361,7 @@
       <c r="N4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="14"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
@@ -3520,7 +4039,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3534,2474 +4053,2477 @@
     <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="17.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="12">
         <v>9738351.0900000017</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="12">
         <v>9900111.370000001</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="12">
         <v>9945567.3900000043</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="12">
         <v>10230308.109999999</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="12">
         <v>10918694.240000004</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="12">
         <v>10216125.009999998</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="12">
         <v>9897334.1400000043</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="12">
         <v>10858740.940000007</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="12">
         <v>8997591.9600000009</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="12">
         <v>45950564.420000002</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="12">
         <v>69149262.560000002</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="17">
         <v>48778567.680000015</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="19">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
         <v>4.3</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="12">
         <v>21.7</v>
       </c>
-      <c r="F3" s="19">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19">
-        <v>0</v>
-      </c>
-      <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
         <v>143</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="12">
         <v>22</v>
       </c>
-      <c r="K3" s="19">
-        <v>0</v>
-      </c>
-      <c r="L3" s="19">
-        <v>0</v>
-      </c>
-      <c r="M3" s="19">
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="12">
         <v>1518.4699999999998</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="12">
         <v>472</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="12">
         <v>2304</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="12">
         <v>392.9</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="12">
         <v>2709.9999999999995</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="12">
         <v>12320.119999999999</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="12">
         <v>18085.55</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="12">
         <v>13011.06</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="12">
         <v>9095.08</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="12">
         <v>62896.159999999996</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="12">
         <v>19639.5</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="17">
         <v>44885.8</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="19">
-        <v>0</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
         <v>2216</v>
       </c>
-      <c r="D5" s="19">
-        <v>0</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19">
-        <v>0</v>
-      </c>
-      <c r="I5" s="19">
-        <v>0</v>
-      </c>
-      <c r="J5" s="19">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
-        <v>0</v>
-      </c>
-      <c r="L5" s="19">
-        <v>0</v>
-      </c>
-      <c r="M5" s="19">
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="12">
         <v>614.8900000000001</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="12">
         <v>771.35</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="12">
         <v>4386.1899999999996</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="12">
         <v>494.12</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="12">
         <v>776.9</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="12">
         <v>121.4</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="12">
         <v>1231</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="12">
         <v>282.27999999999997</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="12">
         <v>245.47</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="12">
         <v>223.7</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="12">
         <v>198.8</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="17">
         <v>219.3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="19">
-        <v>0</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
         <v>17.490000000000002</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="12">
         <v>5.8</v>
       </c>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0</v>
-      </c>
-      <c r="I7" s="19">
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
         <v>715</v>
       </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19">
-        <v>0</v>
-      </c>
-      <c r="L7" s="19">
-        <v>0</v>
-      </c>
-      <c r="M7" s="19">
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="12">
         <v>2195.0099999999998</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="12">
         <v>97</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="12">
         <v>106</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="12">
         <v>131</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="12">
         <v>214</v>
       </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
         <v>38</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="12">
         <v>2009.7</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="12">
         <v>24110</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="12">
         <v>161.5</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="12">
         <v>100.3</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="17">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="12">
         <v>80681381.479999989</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="12">
         <v>44359722.650000013</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="12">
         <v>47637049.419999994</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="12">
         <v>64353088.580000006</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="12">
         <v>65443543.449999996</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="12">
         <v>59228636.299999997</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="12">
         <v>58536721.300000004</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="12">
         <v>66251166.88000001</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="12">
         <v>46004068.629999995</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="12">
         <v>77707789.680000007</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="12">
         <v>55574527.109999999</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="17">
         <v>85792875.089999989</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="12">
         <v>25833750.279999997</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="12">
         <v>22871286.289999999</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="12">
         <v>18812680.120000001</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="12">
         <v>22511145.640000001</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="12">
         <v>22514547.740000002</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="12">
         <v>26799886.399999999</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="12">
         <v>24510105.609999999</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="12">
         <v>24447718.470000003</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="12">
         <v>32260039.740000002</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="12">
         <v>53861899.469999999</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="12">
         <v>27133200.990000002</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="17">
         <v>21144019.07</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="19">
-        <v>0</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
         <v>365.6</v>
       </c>
-      <c r="G11" s="19">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0</v>
-      </c>
-      <c r="I11" s="19">
-        <v>0</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0</v>
-      </c>
-      <c r="K11" s="19">
-        <v>0</v>
-      </c>
-      <c r="L11" s="19">
-        <v>0</v>
-      </c>
-      <c r="M11" s="19">
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="12">
         <v>16803418</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="12">
         <v>17954437</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="12">
         <v>18528952</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="12">
         <v>16925307</v>
       </c>
-      <c r="F12" s="19">
-        <v>0</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
         <v>1801647.82</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="12">
         <v>998849.5</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="12">
         <v>891</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="12">
         <v>27152077.300000001</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="12">
         <v>11420897.5</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="12">
         <v>22364545.399999999</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="17">
         <v>25164750</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="12">
         <v>58561902</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="12">
         <v>20789827</v>
       </c>
-      <c r="D13" s="19">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
-        <v>0</v>
-      </c>
-      <c r="F13" s="19">
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
         <v>60660481</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="12">
         <v>28837954</v>
       </c>
-      <c r="H13" s="19">
-        <v>0</v>
-      </c>
-      <c r="I13" s="19">
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
         <v>46202000</v>
       </c>
-      <c r="J13" s="19">
-        <v>0</v>
-      </c>
-      <c r="K13" s="19">
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
         <v>16201045</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="12">
         <v>46200000</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="17">
         <v>17801930</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="12">
         <v>36886088.100000001</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="12">
         <v>16245209.199999999</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="12">
         <v>34347917.859999999</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="12">
         <v>20886107.189999998</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="12">
         <v>37263002.18</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="12">
         <v>25012841.66</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="12">
         <v>36807569.659999996</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="12">
         <v>33875445.020000003</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="12">
         <v>30788944.149999999</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="12">
         <v>39977672.75</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="12">
         <v>24089453.300000001</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="17">
         <v>30160841.260000002</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="12">
         <v>3899053.61</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="12">
         <v>2237795.0499999998</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="12">
         <v>2936695.99</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="12">
         <v>2969853.89</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="12">
         <v>3605480.02</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="12">
         <v>2989966.67</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="12">
         <v>4289962.34</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="12">
         <v>4082663.0500000003</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="12">
         <v>3024246.65</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="12">
         <v>3733137.72</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="12">
         <v>3187812.69</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="17">
         <v>3278529.0900000003</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="19">
-        <v>0</v>
-      </c>
-      <c r="C16" s="19">
-        <v>0</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0</v>
-      </c>
-      <c r="E16" s="19">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19">
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
         <v>190</v>
       </c>
-      <c r="G16" s="19">
-        <v>0</v>
-      </c>
-      <c r="H16" s="19">
-        <v>0</v>
-      </c>
-      <c r="I16" s="19">
-        <v>0</v>
-      </c>
-      <c r="J16" s="19">
-        <v>0</v>
-      </c>
-      <c r="K16" s="19">
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
         <v>26277</v>
       </c>
-      <c r="L16" s="19">
-        <v>0</v>
-      </c>
-      <c r="M16" s="19">
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="12">
         <v>36305452</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="12">
         <v>29746817</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="12">
         <v>31829551</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="12">
         <v>30055453.399999999</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="12">
         <v>6860492.5999999996</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="12">
         <v>2137940</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="12">
         <v>5946609</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="12">
         <v>28336758</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="12">
         <v>18541802</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="12">
         <v>30145978</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="12">
         <v>19920485</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="17">
         <v>30934206.300000001</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="12">
         <v>48050.68</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="12">
         <v>114727.62</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="12">
         <v>67181</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="12">
         <v>36844.67</v>
       </c>
-      <c r="F18" s="19">
-        <v>0</v>
-      </c>
-      <c r="G18" s="19">
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
         <v>5484.5</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="12">
         <v>24999</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="12">
         <v>24999</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="12">
         <v>112444.21</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="12">
         <v>216329.87</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="12">
         <v>1659614</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="17">
         <v>3120653.7</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="19">
-        <v>0</v>
-      </c>
-      <c r="D19" s="19">
+      <c r="B19" s="12">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
         <v>300400</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="12">
         <v>54960</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="12">
         <v>288404</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="12">
         <v>137380</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="12">
         <v>77320</v>
       </c>
-      <c r="I19" s="19">
-        <v>0</v>
-      </c>
-      <c r="J19" s="19">
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
         <v>72100</v>
       </c>
-      <c r="K19" s="19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="19">
-        <v>0</v>
-      </c>
-      <c r="M19" s="19">
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="12">
         <v>1134649.06</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="12">
         <v>485339.4</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="12">
         <v>1317658.3</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="12">
         <v>1088917</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="12">
         <v>2944506</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="12">
         <v>2780223.09</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="12">
         <v>2339938.34</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="12">
         <v>3595247</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="12">
         <v>6210548.04</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="12">
         <v>5759868.3799999999</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="12">
         <v>8011455.25</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="17">
         <v>6262315.2300000004</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="12">
         <v>49441018</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="12">
         <v>8924149.9399999995</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="12">
         <v>3000000</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="12">
         <v>19941538</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="12">
         <v>2365740</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="12">
         <v>21882412</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="12">
         <v>15300</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="12">
         <v>5989370</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="12">
         <v>20534200</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="12">
         <v>170228.6</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="12">
         <v>4785350</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="17">
         <v>7956939</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="12">
         <v>314757982.29999995</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="12">
         <v>233658987.65000001</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="12">
         <v>313181336.88999999</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="12">
         <v>336741002.48999995</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="12">
         <v>255728550.06999999</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="12">
         <v>316082353.21000004</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="12">
         <v>312806583.92000002</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="12">
         <v>288510844.12000006</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="12">
         <v>224069544.86999997</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="12">
         <v>268959348.13999999</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="12">
         <v>191621927.30000001</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="17">
         <v>226004250.25999996</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="19">
-        <v>0</v>
-      </c>
-      <c r="C23" s="19">
-        <v>0</v>
-      </c>
-      <c r="D23" s="19">
+      <c r="B23" s="12">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
         <v>33000</v>
       </c>
-      <c r="E23" s="19">
-        <v>0</v>
-      </c>
-      <c r="F23" s="19">
-        <v>0</v>
-      </c>
-      <c r="G23" s="19">
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
         <v>540000</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="12">
         <v>150000</v>
       </c>
-      <c r="I23" s="19">
-        <v>0</v>
-      </c>
-      <c r="J23" s="19">
-        <v>0</v>
-      </c>
-      <c r="K23" s="19">
-        <v>0</v>
-      </c>
-      <c r="L23" s="19">
-        <v>0</v>
-      </c>
-      <c r="M23" s="19">
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="12">
         <v>3032151.3099999996</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="12">
         <v>2150429.09</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="12">
         <v>3475092.72</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="12">
         <v>2724359.94</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="12">
         <v>3801381.75</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="12">
         <v>3003281.59</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="12">
         <v>2937055.02</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="12">
         <v>4321553.129999999</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="12">
         <v>3743401.7</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="12">
         <v>4285659.7600000007</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="12">
         <v>3562700.48</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="17">
         <v>3585591.1299999994</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="12">
         <v>8365</v>
       </c>
-      <c r="C25" s="19">
-        <v>0</v>
-      </c>
-      <c r="D25" s="19">
-        <v>0</v>
-      </c>
-      <c r="E25" s="19">
-        <v>0</v>
-      </c>
-      <c r="F25" s="19">
-        <v>0</v>
-      </c>
-      <c r="G25" s="19">
-        <v>0</v>
-      </c>
-      <c r="H25" s="19">
-        <v>0</v>
-      </c>
-      <c r="I25" s="19">
-        <v>0</v>
-      </c>
-      <c r="J25" s="19">
-        <v>0</v>
-      </c>
-      <c r="K25" s="19">
-        <v>0</v>
-      </c>
-      <c r="L25" s="19">
-        <v>0</v>
-      </c>
-      <c r="M25" s="19">
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="12">
         <v>1237</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="12">
         <v>10625</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="12">
         <v>2409480</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="12">
         <v>2654170</v>
       </c>
-      <c r="F26" s="19">
-        <v>0</v>
-      </c>
-      <c r="G26" s="19">
-        <v>0</v>
-      </c>
-      <c r="H26" s="19">
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
         <v>4473.54</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="12">
         <v>2890300</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="12">
         <v>4969370</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="12">
         <v>6127000</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="12">
         <v>6848680</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="17">
         <v>7645995</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="12">
         <v>7387922</v>
       </c>
-      <c r="C27" s="19">
-        <v>0</v>
-      </c>
-      <c r="D27" s="19">
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
         <v>2948169</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="12">
         <v>10570137</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="12">
         <v>4692513</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="12">
         <v>4184356</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="12">
         <v>4169961</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="12">
         <v>2976410</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="12">
         <v>8446953</v>
       </c>
-      <c r="K27" s="19">
-        <v>0</v>
-      </c>
-      <c r="L27" s="19">
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
         <v>7279954</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="17">
         <v>3004632.09</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="19">
-        <v>0</v>
-      </c>
-      <c r="C28" s="19">
-        <v>0</v>
-      </c>
-      <c r="D28" s="19">
-        <v>0</v>
-      </c>
-      <c r="E28" s="19">
-        <v>0</v>
-      </c>
-      <c r="F28" s="19">
-        <v>0</v>
-      </c>
-      <c r="G28" s="19">
-        <v>0</v>
-      </c>
-      <c r="H28" s="19">
+      <c r="B28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
+      <c r="H28" s="12">
         <v>5807</v>
       </c>
-      <c r="I28" s="19">
-        <v>0</v>
-      </c>
-      <c r="J28" s="19">
-        <v>0</v>
-      </c>
-      <c r="K28" s="19">
-        <v>0</v>
-      </c>
-      <c r="L28" s="19">
-        <v>0</v>
-      </c>
-      <c r="M28" s="19">
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0</v>
+      </c>
+      <c r="M28" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="12">
         <v>57892007</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="12">
         <v>109277760</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="12">
         <v>123889845</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="12">
         <v>56655975</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="12">
         <v>184403956</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="12">
         <v>194472713</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="12">
         <v>53313665</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="12">
         <v>124180600</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="12">
         <v>169103800</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="12">
         <v>54219030</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L29" s="12">
         <v>310069801</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M29" s="17">
         <v>65096769.009999998</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="12">
         <v>307520</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="12">
         <v>263320</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="12">
         <v>106460</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="12">
         <v>46000</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="12">
         <v>30440</v>
       </c>
-      <c r="G30" s="19">
-        <v>0</v>
-      </c>
-      <c r="H30" s="19">
+      <c r="G30" s="12">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12">
         <v>344740</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="12">
         <v>180000</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="12">
         <v>138000</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="12">
         <v>667580</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="12">
         <v>1016840</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M30" s="17">
         <v>582679</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="12">
         <v>14271631.030000003</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="12">
         <v>9350131.0599999987</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="12">
         <v>14259929.149999999</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="12">
         <v>15926564.26</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="12">
         <v>12274791.229999999</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="12">
         <v>12723814.130000001</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="12">
         <v>11048561.01</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="12">
         <v>17372609.210000001</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="12">
         <v>11946556.359999999</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="12">
         <v>16623892.019999996</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L31" s="12">
         <v>15699271.77</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M31" s="17">
         <v>14653085.890000001</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="12">
         <v>2214</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="12">
         <v>8923</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="12">
         <v>3534</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="12">
         <v>3201</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="12">
         <v>1550</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="12">
         <v>3877</v>
       </c>
-      <c r="H32" s="19">
-        <v>0</v>
-      </c>
-      <c r="I32" s="19">
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
         <v>1035</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="12">
         <v>1062</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="12">
         <v>5928</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L32" s="12">
         <v>1824</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M32" s="17">
         <v>6187</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="12">
         <v>41205300.780000001</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="12">
         <v>83387981.370000005</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="12">
         <v>36942498.920000009</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="12">
         <v>48352187.540000007</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="12">
         <v>65492860.129999995</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="12">
         <v>70718654.440000013</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="12">
         <v>92821764.309999987</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="12">
         <v>53435416.829999991</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="12">
         <v>50515342.449999996</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="12">
         <v>78049341.319999993</v>
       </c>
-      <c r="L33" s="19">
+      <c r="L33" s="12">
         <v>49433643.07</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="17">
         <v>93000966.180000007</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="19">
-        <v>0</v>
-      </c>
-      <c r="C34" s="19">
-        <v>0</v>
-      </c>
-      <c r="D34" s="19">
-        <v>0</v>
-      </c>
-      <c r="E34" s="19">
-        <v>0</v>
-      </c>
-      <c r="F34" s="19">
-        <v>0</v>
-      </c>
-      <c r="G34" s="19">
-        <v>0</v>
-      </c>
-      <c r="H34" s="19">
-        <v>0</v>
-      </c>
-      <c r="I34" s="19">
-        <v>0</v>
-      </c>
-      <c r="J34" s="19">
-        <v>0</v>
-      </c>
-      <c r="K34" s="19">
-        <v>0</v>
-      </c>
-      <c r="L34" s="19">
+      <c r="B34" s="12">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="12">
         <v>46</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="12">
         <v>485281943.34000003</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="12">
         <v>550544841.0999999</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="12">
         <v>704485644.97000003</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="12">
         <v>836043172.71000004</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="12">
         <v>762613843.00000012</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="12">
         <v>772121837.33999991</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="12">
         <v>830258739.13</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="12">
         <v>810757990.82000005</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="12">
         <v>869737343.84000003</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="12">
         <v>828380589.51000011</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="12">
         <v>790184302.58999991</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M35" s="17">
         <v>633245249.21000004</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="19">
-        <v>0</v>
-      </c>
-      <c r="C36" s="19">
-        <v>0</v>
-      </c>
-      <c r="D36" s="19">
+      <c r="B36" s="12">
+        <v>0</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12">
         <v>65024.270000000004</v>
       </c>
-      <c r="E36" s="19">
-        <v>0</v>
-      </c>
-      <c r="F36" s="19">
-        <v>0</v>
-      </c>
-      <c r="G36" s="19">
-        <v>0</v>
-      </c>
-      <c r="H36" s="19">
-        <v>0</v>
-      </c>
-      <c r="I36" s="19">
-        <v>0</v>
-      </c>
-      <c r="J36" s="19">
-        <v>0</v>
-      </c>
-      <c r="K36" s="19">
-        <v>0</v>
-      </c>
-      <c r="L36" s="19">
-        <v>0</v>
-      </c>
-      <c r="M36" s="19">
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0</v>
+      </c>
+      <c r="L36" s="12">
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="19">
-        <v>0</v>
-      </c>
-      <c r="C37" s="19">
+      <c r="B37" s="12">
+        <v>0</v>
+      </c>
+      <c r="C37" s="12">
         <v>440</v>
       </c>
-      <c r="D37" s="19">
-        <v>0</v>
-      </c>
-      <c r="E37" s="19">
-        <v>0</v>
-      </c>
-      <c r="F37" s="19">
-        <v>0</v>
-      </c>
-      <c r="G37" s="19">
-        <v>0</v>
-      </c>
-      <c r="H37" s="19">
-        <v>0</v>
-      </c>
-      <c r="I37" s="19">
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
         <v>112480</v>
       </c>
-      <c r="J37" s="19">
-        <v>0</v>
-      </c>
-      <c r="K37" s="19">
+      <c r="J37" s="12">
+        <v>0</v>
+      </c>
+      <c r="K37" s="12">
         <v>237499</v>
       </c>
-      <c r="L37" s="19">
+      <c r="L37" s="12">
         <v>343620</v>
       </c>
-      <c r="M37" s="19">
+      <c r="M37" s="17">
         <v>206680</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="19">
-        <v>0</v>
-      </c>
-      <c r="C38" s="19">
-        <v>0</v>
-      </c>
-      <c r="D38" s="19">
-        <v>0</v>
-      </c>
-      <c r="E38" s="19">
+      <c r="B38" s="12">
+        <v>0</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12">
         <v>1200</v>
       </c>
-      <c r="F38" s="19">
-        <v>0</v>
-      </c>
-      <c r="G38" s="19">
-        <v>0</v>
-      </c>
-      <c r="H38" s="19">
-        <v>0</v>
-      </c>
-      <c r="I38" s="19">
-        <v>0</v>
-      </c>
-      <c r="J38" s="19">
-        <v>0</v>
-      </c>
-      <c r="K38" s="19">
-        <v>0</v>
-      </c>
-      <c r="L38" s="19">
-        <v>0</v>
-      </c>
-      <c r="M38" s="19">
+      <c r="F38" s="12">
+        <v>0</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="12">
+        <v>0</v>
+      </c>
+      <c r="L38" s="12">
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="12">
         <v>393723</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="12">
         <v>201229</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="12">
         <v>589809</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="12">
         <v>391422</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="12">
         <v>392296</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="12">
         <v>388236</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="12">
         <v>386098</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="12">
         <v>341405</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="12">
         <v>360009</v>
       </c>
-      <c r="K39" s="19">
-        <v>0</v>
-      </c>
-      <c r="L39" s="19">
+      <c r="K39" s="12">
+        <v>0</v>
+      </c>
+      <c r="L39" s="12">
         <v>366967.64</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="17">
         <v>1312410</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="12">
         <v>2613683.15</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="12">
         <v>2535316.13</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="12">
         <v>2631288.09</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="12">
         <v>3287879.32</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="12">
         <v>3715664.1799999997</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="12">
         <v>2576625.23</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="12">
         <v>3608348.79</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="12">
         <v>3905007.23</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="12">
         <v>4936139.58</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K40" s="12">
         <v>4875638.87</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L40" s="12">
         <v>3660525.8099999996</v>
       </c>
-      <c r="M40" s="19">
+      <c r="M40" s="17">
         <v>4656299.76</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="19">
-        <v>0</v>
-      </c>
-      <c r="C41" s="19">
-        <v>0</v>
-      </c>
-      <c r="D41" s="19">
-        <v>0</v>
-      </c>
-      <c r="E41" s="19">
-        <v>0</v>
-      </c>
-      <c r="F41" s="19">
-        <v>0</v>
-      </c>
-      <c r="G41" s="19">
+      <c r="B41" s="12">
+        <v>0</v>
+      </c>
+      <c r="C41" s="12">
+        <v>0</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
         <v>3966.1</v>
       </c>
-      <c r="H41" s="19">
-        <v>0</v>
-      </c>
-      <c r="I41" s="19">
-        <v>0</v>
-      </c>
-      <c r="J41" s="19">
-        <v>0</v>
-      </c>
-      <c r="K41" s="19">
-        <v>0</v>
-      </c>
-      <c r="L41" s="19">
-        <v>0</v>
-      </c>
-      <c r="M41" s="19">
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0</v>
+      </c>
+      <c r="K41" s="12">
+        <v>0</v>
+      </c>
+      <c r="L41" s="12">
+        <v>0</v>
+      </c>
+      <c r="M41" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="12">
         <v>2323580</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="12">
         <v>15761188</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="12">
         <v>15305220</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="12">
         <v>24972840</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="12">
         <v>5850660</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="12">
         <v>53148980</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="12">
         <v>30693261</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="12">
         <v>19622458</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J42" s="12">
         <v>36981761</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K42" s="12">
         <v>16000000</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L42" s="12">
         <v>18401659</v>
       </c>
-      <c r="M42" s="19">
+      <c r="M42" s="17">
         <v>17780890</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="12">
         <v>29221028.709999997</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="12">
         <v>24335641.469999999</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="12">
         <v>36271037.68</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="12">
         <v>30799254</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="12">
         <v>33243979.009999994</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="12">
         <v>25703257.500000004</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="12">
         <v>24493990.57</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="12">
         <v>23709646.880000003</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="12">
         <v>25180817.599999998</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K43" s="12">
         <v>33040020.27</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L43" s="12">
         <v>27383404.309999999</v>
       </c>
-      <c r="M43" s="19">
+      <c r="M43" s="17">
         <v>30166806.289999999</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="12">
         <v>190236517.31</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="12">
         <v>245281288.47999996</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="12">
         <v>128899966.56</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="12">
         <v>34413584.060000002</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="12">
         <v>36003129.18999999</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="12">
         <v>34712614.269999996</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="12">
         <v>47253559.190000005</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="12">
         <v>45768046.20000001</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="12">
         <v>41277928.109999999</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K44" s="12">
         <v>82138304.280000001</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L44" s="12">
         <v>98670155.390000001</v>
       </c>
-      <c r="M44" s="19">
+      <c r="M44" s="17">
         <v>21492034.490000002</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="12">
         <v>55327467</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="12">
         <v>46757639.670000002</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="12">
         <v>57637750</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="12">
         <v>40137542.899999999</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="12">
         <v>24349238</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="12">
         <v>94416273</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H45" s="12">
         <v>56912530</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I45" s="12">
         <v>114860321</v>
       </c>
-      <c r="J45" s="19">
+      <c r="J45" s="12">
         <v>65729774</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K45" s="12">
         <v>48245169.509999998</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L45" s="12">
         <v>48916969.5</v>
       </c>
-      <c r="M45" s="19">
+      <c r="M45" s="17">
         <v>35990776.560000002</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="19">
-        <v>0</v>
-      </c>
-      <c r="C46" s="19">
+      <c r="B46" s="12">
+        <v>0</v>
+      </c>
+      <c r="C46" s="12">
         <v>3500</v>
       </c>
-      <c r="D46" s="19">
-        <v>0</v>
-      </c>
-      <c r="E46" s="19">
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12">
         <v>11000</v>
       </c>
-      <c r="F46" s="19">
-        <v>0</v>
-      </c>
-      <c r="G46" s="19">
-        <v>0</v>
-      </c>
-      <c r="H46" s="19">
-        <v>0</v>
-      </c>
-      <c r="I46" s="19">
-        <v>0</v>
-      </c>
-      <c r="J46" s="19">
-        <v>0</v>
-      </c>
-      <c r="K46" s="19">
-        <v>0</v>
-      </c>
-      <c r="L46" s="19">
-        <v>0</v>
-      </c>
-      <c r="M46" s="19">
+      <c r="F46" s="12">
+        <v>0</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0</v>
+      </c>
+      <c r="H46" s="12">
+        <v>0</v>
+      </c>
+      <c r="I46" s="12">
+        <v>0</v>
+      </c>
+      <c r="J46" s="12">
+        <v>0</v>
+      </c>
+      <c r="K46" s="12">
+        <v>0</v>
+      </c>
+      <c r="L46" s="12">
+        <v>0</v>
+      </c>
+      <c r="M46" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="12">
         <v>15149525.01</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="12">
         <v>15420251.800000001</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="12">
         <v>23419979.920000002</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="12">
         <v>15015491.389999999</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="12">
         <v>6205550.4400000004</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="12">
         <v>6169201.4899999993</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="12">
         <v>4469944.4399999995</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="12">
         <v>8372660.75</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="12">
         <v>22760531.289999999</v>
       </c>
-      <c r="K47" s="19">
+      <c r="K47" s="12">
         <v>57627342.059999995</v>
       </c>
-      <c r="L47" s="19">
+      <c r="L47" s="12">
         <v>63881080.579999998</v>
       </c>
-      <c r="M47" s="19">
+      <c r="M47" s="17">
         <v>70906986.609999985</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="12">
         <v>692388359.40999997</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="12">
         <v>725104854.69999993</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="12">
         <v>681473080.22000003</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="12">
         <v>915151677.19000006</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="12">
         <v>863054975.15999997</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="12">
         <v>1042779626.08</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="12">
         <v>802196810.13999999</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="12">
         <v>779580683.70000017</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J48" s="12">
         <v>745695106.94000006</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K48" s="12">
         <v>867429926.78000009</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L48" s="12">
         <v>591066684.45000005</v>
       </c>
-      <c r="M48" s="19">
+      <c r="M48" s="17">
         <v>461508690.89000005</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="12">
         <v>935276526.57999992</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="12">
         <v>740129437.05999959</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="12">
         <v>911715640.2299999</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="12">
         <v>755779074.50000036</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="12">
         <v>841272993.41000021</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="12">
         <v>1359164150.539999</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="12">
         <v>2615415911.8299994</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="12">
         <v>1101985586.9799998</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="12">
         <v>950041198.73999977</v>
       </c>
-      <c r="K49" s="19">
+      <c r="K49" s="12">
         <v>1246695608.6499999</v>
       </c>
-      <c r="L49" s="19">
+      <c r="L49" s="12">
         <v>975167231.22999966</v>
       </c>
-      <c r="M49" s="19">
+      <c r="M49" s="17">
         <v>1099268786.6900001</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="19">
-        <v>0</v>
-      </c>
-      <c r="C50" s="19">
-        <v>0</v>
-      </c>
-      <c r="D50" s="19">
-        <v>0</v>
-      </c>
-      <c r="E50" s="19">
-        <v>0</v>
-      </c>
-      <c r="F50" s="19">
-        <v>0</v>
-      </c>
-      <c r="G50" s="19">
-        <v>0</v>
-      </c>
-      <c r="H50" s="19">
-        <v>0</v>
-      </c>
-      <c r="I50" s="19">
-        <v>0</v>
-      </c>
-      <c r="J50" s="19">
+      <c r="B50" s="12">
+        <v>0</v>
+      </c>
+      <c r="C50" s="12">
+        <v>0</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0</v>
+      </c>
+      <c r="F50" s="12">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
         <v>2200</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K50" s="12">
         <v>9705.5</v>
       </c>
-      <c r="L50" s="19">
-        <v>0</v>
-      </c>
-      <c r="M50" s="19">
+      <c r="L50" s="12">
+        <v>0</v>
+      </c>
+      <c r="M50" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="19">
-        <v>0</v>
-      </c>
-      <c r="C51" s="19">
+      <c r="B51" s="12">
+        <v>0</v>
+      </c>
+      <c r="C51" s="12">
         <v>60240</v>
       </c>
-      <c r="D51" s="19">
-        <v>0</v>
-      </c>
-      <c r="E51" s="19">
-        <v>0</v>
-      </c>
-      <c r="F51" s="19">
+      <c r="D51" s="12">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0</v>
+      </c>
+      <c r="F51" s="12">
         <v>30120</v>
       </c>
-      <c r="G51" s="19">
-        <v>0</v>
-      </c>
-      <c r="H51" s="19">
+      <c r="G51" s="12">
+        <v>0</v>
+      </c>
+      <c r="H51" s="12">
         <v>2776.2</v>
       </c>
-      <c r="I51" s="19">
-        <v>0</v>
-      </c>
-      <c r="J51" s="19">
-        <v>0</v>
-      </c>
-      <c r="K51" s="19">
+      <c r="I51" s="12">
+        <v>0</v>
+      </c>
+      <c r="J51" s="12">
+        <v>0</v>
+      </c>
+      <c r="K51" s="12">
         <v>3848</v>
       </c>
-      <c r="L51" s="19">
-        <v>0</v>
-      </c>
-      <c r="M51" s="19">
+      <c r="L51" s="12">
+        <v>0</v>
+      </c>
+      <c r="M51" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="12">
         <v>47200</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="12">
         <v>9700</v>
       </c>
-      <c r="D52" s="19">
-        <v>0</v>
-      </c>
-      <c r="E52" s="19">
+      <c r="D52" s="12">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12">
         <v>133787</v>
       </c>
-      <c r="F52" s="19">
-        <v>0</v>
-      </c>
-      <c r="G52" s="19">
-        <v>0</v>
-      </c>
-      <c r="H52" s="19">
-        <v>0</v>
-      </c>
-      <c r="I52" s="19">
-        <v>0</v>
-      </c>
-      <c r="J52" s="19">
-        <v>0</v>
-      </c>
-      <c r="K52" s="19">
-        <v>0</v>
-      </c>
-      <c r="L52" s="19">
-        <v>0</v>
-      </c>
-      <c r="M52" s="19">
+      <c r="F52" s="12">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
+        <v>0</v>
+      </c>
+      <c r="K52" s="12">
+        <v>0</v>
+      </c>
+      <c r="L52" s="12">
+        <v>0</v>
+      </c>
+      <c r="M52" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="12">
         <v>161645919.13</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="12">
         <v>263181954.65000004</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="12">
         <v>331181618.14000005</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="12">
         <v>244045278.5</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="12">
         <v>306858484.12</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="12">
         <v>295395938.99000001</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="12">
         <v>201038123.40000001</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="12">
         <v>207889730.63</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="12">
         <v>226751787.07000005</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K53" s="12">
         <v>283156395.80000007</v>
       </c>
-      <c r="L53" s="19">
+      <c r="L53" s="12">
         <v>214211840.22999999</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M53" s="17">
         <v>335162795.02999997</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="12">
         <v>370186515</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="12">
         <v>471266075</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="12">
         <v>657577179.5</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="12">
         <v>555025393</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="12">
         <v>441919263</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="12">
         <v>408490108.60000002</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="12">
         <v>389037754.19</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="12">
         <v>567561027.33999991</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="12">
         <v>198955121.77000001</v>
       </c>
-      <c r="K54" s="19">
+      <c r="K54" s="12">
         <v>566585413.87</v>
       </c>
-      <c r="L54" s="19">
+      <c r="L54" s="12">
         <v>474845099.63</v>
       </c>
-      <c r="M54" s="19">
+      <c r="M54" s="17">
         <v>859759033</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="12">
         <v>73121800</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="12">
         <v>143351300</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="12">
         <v>214348800</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="12">
         <v>7733100</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="12">
         <v>62157500</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="12">
         <v>75567000</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H55" s="12">
         <v>146230229</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="12">
         <v>74970071</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J55" s="12">
         <v>62502700</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K55" s="12">
         <v>151611500</v>
       </c>
-      <c r="L55" s="19">
+      <c r="L55" s="12">
         <v>253805900</v>
       </c>
-      <c r="M55" s="19">
+      <c r="M55" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="19">
-        <v>0</v>
-      </c>
-      <c r="C56" s="19">
-        <v>0</v>
-      </c>
-      <c r="D56" s="19">
-        <v>0</v>
-      </c>
-      <c r="E56" s="19">
-        <v>0</v>
-      </c>
-      <c r="F56" s="19">
-        <v>0</v>
-      </c>
-      <c r="G56" s="19">
-        <v>0</v>
-      </c>
-      <c r="H56" s="19">
-        <v>0</v>
-      </c>
-      <c r="I56" s="19">
-        <v>0</v>
-      </c>
-      <c r="J56" s="19">
-        <v>0</v>
-      </c>
-      <c r="K56" s="19">
-        <v>0</v>
-      </c>
-      <c r="L56" s="19">
+      <c r="B56" s="12">
+        <v>0</v>
+      </c>
+      <c r="C56" s="12">
+        <v>0</v>
+      </c>
+      <c r="D56" s="12">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0</v>
+      </c>
+      <c r="F56" s="12">
+        <v>0</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0</v>
+      </c>
+      <c r="I56" s="12">
+        <v>0</v>
+      </c>
+      <c r="J56" s="12">
+        <v>0</v>
+      </c>
+      <c r="K56" s="12">
+        <v>0</v>
+      </c>
+      <c r="L56" s="12">
         <v>5865</v>
       </c>
-      <c r="M56" s="19">
+      <c r="M56" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="12">
         <v>8673</v>
       </c>
-      <c r="C57" s="19">
-        <v>0</v>
-      </c>
-      <c r="D57" s="19">
-        <v>0</v>
-      </c>
-      <c r="E57" s="19">
-        <v>0</v>
-      </c>
-      <c r="F57" s="19">
-        <v>0</v>
-      </c>
-      <c r="G57" s="19">
-        <v>0</v>
-      </c>
-      <c r="H57" s="19">
-        <v>0</v>
-      </c>
-      <c r="I57" s="19">
-        <v>0</v>
-      </c>
-      <c r="J57" s="19">
-        <v>0</v>
-      </c>
-      <c r="K57" s="19">
-        <v>0</v>
-      </c>
-      <c r="L57" s="19">
-        <v>0</v>
-      </c>
-      <c r="M57" s="19">
+      <c r="C57" s="12">
+        <v>0</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0</v>
+      </c>
+      <c r="F57" s="12">
+        <v>0</v>
+      </c>
+      <c r="G57" s="12">
+        <v>0</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0</v>
+      </c>
+      <c r="I57" s="12">
+        <v>0</v>
+      </c>
+      <c r="J57" s="12">
+        <v>0</v>
+      </c>
+      <c r="K57" s="12">
+        <v>0</v>
+      </c>
+      <c r="L57" s="12">
+        <v>0</v>
+      </c>
+      <c r="M57" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="12">
         <v>432299283.0800001</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="12">
         <v>391806470.10000002</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="12">
         <v>401344720.30999994</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="12">
         <v>363545968.63000011</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="12">
         <v>420954691.98000002</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="12">
         <v>411080529.23000002</v>
       </c>
-      <c r="H58" s="19">
+      <c r="H58" s="12">
         <v>315500139.56000006</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I58" s="12">
         <v>466754829.49000007</v>
       </c>
-      <c r="J58" s="19">
+      <c r="J58" s="12">
         <v>316615981.45999992</v>
       </c>
-      <c r="K58" s="19">
+      <c r="K58" s="12">
         <v>389002490.25000006</v>
       </c>
-      <c r="L58" s="19">
+      <c r="L58" s="12">
         <v>167608505.74999994</v>
       </c>
-      <c r="M58" s="19">
+      <c r="M58" s="17">
         <v>331819359.16000009</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="19">
+      <c r="A59" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="12">
         <v>198777121</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="12">
         <v>237703360</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="12">
         <v>357729890</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="12">
         <v>151577000</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="12">
         <v>308576969</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59" s="12">
         <v>287486049</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H59" s="12">
         <v>250545079</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I59" s="12">
         <v>250820000</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J59" s="12">
         <v>172617230</v>
       </c>
-      <c r="K59" s="19">
+      <c r="K59" s="12">
         <v>338777160</v>
       </c>
-      <c r="L59" s="19">
+      <c r="L59" s="12">
         <v>247960147</v>
       </c>
-      <c r="M59" s="19">
+      <c r="M59" s="17">
         <v>158533288</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="19">
+      <c r="B60" s="22">
         <v>340224955.58000004</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="22">
         <v>294717909.30000001</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="22">
         <v>258909185.55999997</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60" s="22">
         <v>245368119.10999995</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F60" s="22">
         <v>233441093.46999994</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G60" s="22">
         <v>228500961.47</v>
       </c>
-      <c r="H60" s="19">
+      <c r="H60" s="22">
         <v>722460081.80999994</v>
       </c>
-      <c r="I60" s="19">
+      <c r="I60" s="22">
         <v>251492164.83000004</v>
       </c>
-      <c r="J60" s="19">
+      <c r="J60" s="22">
         <v>391187476.01000011</v>
       </c>
-      <c r="K60" s="19">
+      <c r="K60" s="22">
         <v>1986258978.6800008</v>
       </c>
-      <c r="L60" s="19">
+      <c r="L60" s="22">
         <v>313498810.29999995</v>
       </c>
-      <c r="M60" s="19">
+      <c r="M60" s="23">
         <v>375376711.49000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>